--- a/descripcion_Tablas.xlsx
+++ b/descripcion_Tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melpu\OneDrive\Escritorio\entregas_SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49B3742-BBD8-43E3-B0FC-92413220E9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EBCDFE-0A82-4DF2-87A2-414587ADCDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C77AF683-30CF-4B96-8D9F-23CCCB11CB72}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
   <si>
     <t>PK</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>FECHA DE CIERRE DE BALANCE</t>
+  </si>
+  <si>
+    <t>PRODUCTOS_CLIENTE_ID</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,12 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1825,7 +1822,7 @@
   <dimension ref="B2:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2559,11 +2556,11 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>9</v>
@@ -2577,46 +2574,52 @@
       <c r="G60" s="25">
         <v>10</v>
       </c>
-      <c r="H60" s="33" t="s">
+      <c r="H60" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="6" t="s">
+      <c r="B61" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="25">
+        <v>10</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="7">
+      <c r="E62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7">
         <v>4</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H62" s="8" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="30"/>
-      <c r="C62" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/descripcion_Tablas.xlsx
+++ b/descripcion_Tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melpu\OneDrive\Escritorio\entregas_SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EBCDFE-0A82-4DF2-87A2-414587ADCDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9336C65-6D3C-4473-BB2B-94DF45D434DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C77AF683-30CF-4B96-8D9F-23CCCB11CB72}"/>
   </bookViews>
